--- a/const.xlsx
+++ b/const.xlsx
@@ -111,6 +111,46 @@
   </si>
   <si>
     <r>
+      <t>mb_mode_read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mb_mode_write_single</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>201</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mb_mode_write</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>202</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mb_write_single_output_bit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>mb_write_single_holding_reg</t>
     </r>
   </si>
@@ -121,42 +161,12 @@
   </si>
   <si>
     <r>
-      <t>mb_write_single_output_bit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mb_mode_read</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mb_mode_write_single</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>201</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mb_mode_write</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>202</t>
+      <t>mb_skip_query</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
     </r>
   </si>
 </sst>
@@ -406,6 +416,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
